--- a/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9AA298-1B2E-40F3-9142-4237E57EE081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A38B104-9DD3-4336-9B67-25997E223527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="1380" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{C21AA55C-E796-4F8A-9202-23D9572ABF70}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CF7834A1-85C7-4691-9DFE-AFDFB02A314D}">
       <text>
         <r>
           <rPr>
@@ -49,26 +49,140 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1.对手 2.自身 3.物品 </t>
+1.自身物品 
+2.玩家自己
+3.对手玩家
+4.星物品
+5.方块物品
+6.本场游戏 
+7.包内物品
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4C29FD21-B17D-4E25-9F32-838B6D7914AA}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">类型 
-1.改变属性
-2.施加类  
-3.移除类 
-4.激活类 
-5.特殊类
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1.造成伤害  
+2.改变属性 
+3.施加buff类   
+4.激活类
+5.玩家属性类 
+6.特殊类  
+7.减免类</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{91E6DCAD-350B-483F-BA2E-7DF0BC28C1C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+类型1.造成伤害
+1.武器伤害
+类型2.改变属性
+1.造成额外伤害+X
+2.下次攻击造成伤害+X
+3.触发间隔 %
+4.命中率
+5.下次攻击造成额外伤害+X 
+类型3 施加/移除类
+buffId
+类型4.激活类
+1.激活次数
+类型5:玩家属性类
+1.生命值 值
+2.耐力 值
+3.生命值 百分比
+4.耐力 百分比
+类型6.特殊类
+1.无视护甲
+2.下次攻击计算两次
+类型7:减免类
+1.减免收到的伤害
+类型3 buffId
+buffID
+1.充能
+2.狂热
+3.幸运
+4.魔法
+5.回复
+6.尖刺
+7.吸血
+8.致盲
+9.冰冷
+10.中毒
+11.护盾
+12.治疗
+13.疲惫
+14.无敌
+15.无效 : 放置获得增益
+16.反弹
+17.复活
+19.抵挡:放置获得减益
+20.眩晕:暂停所有物品冷却时间</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B67CA8B7-30DA-45F1-81DB-15D527E67E28}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">admin:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
@@ -78,7 +192,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>编号</t>
   </si>
@@ -98,14 +212,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int16</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>名字</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -118,30 +224,91 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>下次攻击伤害</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>+x</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Target</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
+    <t>效果目标</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型分类</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Both</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectTarget</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectClass</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>包内的物品触发快10%。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复玩家自身1点耐力.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈玩家自身4点生命。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品自身造成+1额外伤害。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家自身获得1层Spikes。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给对手施加1层Poison。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>给对手施加1层Blind。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">下一次攻击获得+2点伤害加成。 </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Star的武器攻击力+1。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>减免玩家4点受到的伤害</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除对手0.3点耐力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家自身获得1层Heat。</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -149,7 +316,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,12 +327,14 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -205,24 +374,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -323,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -357,29 +513,38 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -391,26 +556,6 @@
       <fill>
         <patternFill patternType="darkGray">
           <fgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -734,124 +879,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="2" max="2" width="44.125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="6" width="14.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>8</v>
+      <c r="B1" s="17" t="s">
+        <v>6</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="B2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B4" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" ht="16.5">
+      <c r="D4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="9">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9">
+        <v>6</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9">
+        <v>2</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3</v>
+      </c>
+      <c r="D6" s="9">
+        <v>2</v>
+      </c>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="9">
+        <v>3</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="9">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9">
+        <v>2</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3</v>
+      </c>
+      <c r="F7" s="9">
+        <v>10</v>
+      </c>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9">
+        <v>4</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="9">
+        <v>2</v>
+      </c>
+      <c r="D8" s="9">
+        <v>5</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1</v>
+      </c>
+      <c r="F8" s="9">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="9">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9">
+        <v>5</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="9">
+        <v>6</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3</v>
+      </c>
+      <c r="D10" s="9">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9">
+        <v>10</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="9">
+        <v>7</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3</v>
+      </c>
+      <c r="E11" s="9">
+        <v>8</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="9">
+        <v>8</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3</v>
+      </c>
+      <c r="D12" s="9">
+        <v>2</v>
+      </c>
+      <c r="E12" s="9">
+        <v>5</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2</v>
+      </c>
+      <c r="G12" s="10"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="9">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9">
+        <v>2</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="9">
+        <v>10</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2</v>
+      </c>
+      <c r="D14" s="9">
+        <v>7</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>4</v>
+      </c>
+      <c r="G14" s="10"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9">
+        <v>11</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="9">
+        <v>3</v>
+      </c>
+      <c r="D15" s="9">
+        <v>5</v>
+      </c>
+      <c r="E15" s="9">
+        <v>2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>30</v>
+      </c>
+      <c r="G15" s="10"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9">
         <v>12</v>
       </c>
-      <c r="C5" s="9">
+      <c r="B16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9">
         <v>3</v>
       </c>
-      <c r="D5" s="10">
+      <c r="E16" s="9">
+        <v>2</v>
+      </c>
+      <c r="F16" s="9">
         <v>1</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="G16" s="10"/>
+    </row>
+    <row r="18" spans="4:4" ht="16.5">
+      <c r="D18" s="14"/>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" s="15"/>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" s="15"/>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" s="15"/>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" s="15"/>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" s="15"/>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" s="15"/>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" s="15"/>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" s="15"/>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" s="15"/>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D1">
-    <cfRule type="duplicateValues" dxfId="3" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E1 E4">
+  <conditionalFormatting sqref="G1 G4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,E1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,G1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2">
+  <conditionalFormatting sqref="G2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,E2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,G2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A38B104-9DD3-4336-9B67-25997E223527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F19DB89-7AE3-4F3E-8C6D-3EDB64827CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="1380" windowWidth="29010" windowHeight="13965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -882,7 +882,7 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F19DB89-7AE3-4F3E-8C6D-3EDB64827CEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8318377A-F9C8-4469-AE6A-89E910A62204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,12 +187,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{0DDCE005-4BAF-4C3C-A5BF-89C2EF724158}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">admin:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>编号</t>
   </si>
@@ -309,6 +336,14 @@
   </si>
   <si>
     <t>玩家自身获得1层Heat。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>概率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectProbably</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -879,10 +914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -890,11 +925,11 @@
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.125" style="16" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
-    <col min="4" max="6" width="14.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1"/>
+    <col min="4" max="7" width="14.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -913,11 +948,14 @@
       <c r="F1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -936,11 +974,14 @@
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
@@ -959,9 +1000,12 @@
       <c r="F3" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="7"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="G3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -980,9 +1024,12 @@
       <c r="F4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="G4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="9">
         <v>1</v>
       </c>
@@ -1001,9 +1048,12 @@
       <c r="F5" s="9">
         <v>1</v>
       </c>
-      <c r="G5" s="10"/>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="9">
+        <v>100</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="9">
         <v>2</v>
       </c>
@@ -1022,9 +1072,12 @@
       <c r="F6" s="9">
         <v>1</v>
       </c>
-      <c r="G6" s="10"/>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="9">
+        <v>100</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="9">
         <v>3</v>
       </c>
@@ -1043,9 +1096,12 @@
       <c r="F7" s="9">
         <v>10</v>
       </c>
-      <c r="G7" s="10"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="9">
+        <v>100</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="9">
         <v>4</v>
       </c>
@@ -1064,9 +1120,12 @@
       <c r="F8" s="9">
         <v>4</v>
       </c>
-      <c r="G8" s="10"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="9">
+        <v>100</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="9">
         <v>5</v>
       </c>
@@ -1085,9 +1144,12 @@
       <c r="F9" s="9">
         <v>1</v>
       </c>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="9">
+        <v>100</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="9">
         <v>6</v>
       </c>
@@ -1106,9 +1168,12 @@
       <c r="F10" s="9">
         <v>1</v>
       </c>
-      <c r="G10" s="10"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="G10" s="9">
+        <v>100</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="9">
         <v>7</v>
       </c>
@@ -1127,9 +1192,12 @@
       <c r="F11" s="9">
         <v>1</v>
       </c>
-      <c r="G11" s="10"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="9">
+        <v>100</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="9">
         <v>8</v>
       </c>
@@ -1148,9 +1216,12 @@
       <c r="F12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="10"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="9">
+        <v>100</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="9">
         <v>9</v>
       </c>
@@ -1169,9 +1240,12 @@
       <c r="F13" s="9">
         <v>1</v>
       </c>
-      <c r="G13" s="10"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="9">
+        <v>100</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="9">
         <v>10</v>
       </c>
@@ -1190,9 +1264,12 @@
       <c r="F14" s="9">
         <v>4</v>
       </c>
-      <c r="G14" s="10"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="9">
+        <v>30</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="9">
         <v>11</v>
       </c>
@@ -1211,9 +1288,12 @@
       <c r="F15" s="9">
         <v>30</v>
       </c>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="9">
+        <v>30</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="9">
         <v>12</v>
       </c>
@@ -1232,7 +1312,10 @@
       <c r="F16" s="9">
         <v>1</v>
       </c>
-      <c r="G16" s="10"/>
+      <c r="G16" s="9">
+        <v>100</v>
+      </c>
+      <c r="H16" s="10"/>
     </row>
     <row r="18" spans="4:4" ht="16.5">
       <c r="D18" s="14"/>
@@ -1275,19 +1358,19 @@
   <conditionalFormatting sqref="A1">
     <cfRule type="duplicateValues" dxfId="3" priority="6"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1 G4">
+  <conditionalFormatting sqref="H1 H4">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
     <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,G1)&gt;1</formula>
+      <formula>COUNTIF($A:$A,H1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2">
+  <conditionalFormatting sqref="H2">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,G2)&gt;1</formula>
+      <formula>COUNTIF($A:$A,H2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
@@ -1,41 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8318377A-F9C8-4469-AE6A-89E910A62204}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CF7834A1-85C7-4691-9DFE-AFDFB02A314D}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -43,9 +48,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -60,15 +63,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4C29FD21-B17D-4E25-9F32-838B6D7914AA}">
+    <comment ref="D1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -76,9 +77,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -92,15 +91,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{91E6DCAD-350B-483F-BA2E-7DF0BC28C1C9}">
+    <comment ref="E1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -108,9 +105,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -160,15 +155,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B67CA8B7-30DA-45F1-81DB-15D527E67E28}">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">admin:
@@ -177,9 +170,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -187,15 +178,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{0DDCE005-4BAF-4C3C-A5BF-89C2EF724158}">
+    <comment ref="G1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">admin:
@@ -204,9 +193,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -219,11 +206,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>编号</t>
   </si>
   <si>
+    <t>名字</t>
+  </si>
+  <si>
+    <t>效果目标</t>
+  </si>
+  <si>
+    <t>效果类型</t>
+  </si>
+  <si>
+    <t>类型分类</t>
+  </si>
+  <si>
+    <t>效果值</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
     <t>备注</t>
   </si>
   <si>
@@ -236,122 +241,80 @@
     <t>int16</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int32</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
-    <t>名字</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果目标</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型分类</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>效果值</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Both</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EffectTarget</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EffectType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EffectClass</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>EffectValue</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EffectProbably</t>
+  </si>
+  <si>
+    <t>玩家自身获得1层Spikes。</t>
+  </si>
+  <si>
+    <t>物品自身造成+1额外伤害。</t>
   </si>
   <si>
     <t>包内的物品触发快10%。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈玩家自身4点生命。</t>
   </si>
   <si>
     <t>恢复玩家自身1点耐力.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>治愈玩家自身4点生命。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>物品自身造成+1额外伤害。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家自身获得1层Spikes。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>给对手施加1层Poison。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>给对手施加1层Blind。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">下一次攻击获得+2点伤害加成。 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>Star的武器攻击力+1。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>减免玩家4点受到的伤害</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>移除对手0.3点耐力</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>玩家自身获得1层Heat。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>概率</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EffectProbably</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,68 +325,177 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -444,7 +516,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,13 +534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,8 +556,170 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -508,26 +742,280 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -542,44 +1030,87 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -594,34 +1125,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -908,502 +1416,508 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="44.125" style="16" customWidth="1"/>
+    <col min="2" max="2" width="44.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="7" width="14.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="12" t="s">
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="B3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="15">
+        <v>1</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="15">
+        <v>2</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3</v>
+      </c>
+      <c r="E5" s="15">
+        <v>6</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1</v>
+      </c>
+      <c r="G5" s="15">
+        <v>100</v>
+      </c>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="15">
+        <v>2</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6" s="15">
+        <v>1</v>
+      </c>
+      <c r="G6" s="15">
+        <v>100</v>
+      </c>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="15">
+        <v>3</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="15">
+        <v>7</v>
+      </c>
+      <c r="D7" s="15">
+        <v>2</v>
+      </c>
+      <c r="E7" s="15">
+        <v>3</v>
+      </c>
+      <c r="F7" s="15">
+        <v>10</v>
+      </c>
+      <c r="G7" s="15">
+        <v>100</v>
+      </c>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="15">
+        <v>4</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="15">
+        <v>2</v>
+      </c>
+      <c r="D8" s="15">
+        <v>5</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="15">
+        <v>4</v>
+      </c>
+      <c r="G8" s="15">
+        <v>100</v>
+      </c>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="15">
+        <v>5</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="15">
+        <v>2</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5</v>
+      </c>
+      <c r="E9" s="15">
+        <v>2</v>
+      </c>
+      <c r="F9" s="15">
+        <v>1</v>
+      </c>
+      <c r="G9" s="15">
+        <v>100</v>
+      </c>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="15">
+        <v>6</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="15">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15">
+        <v>3</v>
+      </c>
+      <c r="E10" s="15">
+        <v>10</v>
+      </c>
+      <c r="F10" s="15">
+        <v>1</v>
+      </c>
+      <c r="G10" s="15">
+        <v>100</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="15">
+        <v>7</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="15">
+        <v>3</v>
+      </c>
+      <c r="D11" s="15">
+        <v>3</v>
+      </c>
+      <c r="E11" s="15">
+        <v>8</v>
+      </c>
+      <c r="F11" s="15">
+        <v>1</v>
+      </c>
+      <c r="G11" s="15">
+        <v>100</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="15">
+        <v>8</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="15">
+        <v>3</v>
+      </c>
+      <c r="D12" s="15">
+        <v>2</v>
+      </c>
+      <c r="E12" s="15">
+        <v>5</v>
+      </c>
+      <c r="F12" s="15">
+        <v>2</v>
+      </c>
+      <c r="G12" s="15">
+        <v>100</v>
+      </c>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="15">
+        <v>9</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="15">
+        <v>4</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2</v>
+      </c>
+      <c r="E13" s="15">
+        <v>1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>1</v>
+      </c>
+      <c r="G13" s="15">
+        <v>100</v>
+      </c>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="15">
+        <v>10</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="15">
+        <v>2</v>
+      </c>
+      <c r="D14" s="15">
+        <v>7</v>
+      </c>
+      <c r="E14" s="15">
+        <v>1</v>
+      </c>
+      <c r="F14" s="15">
+        <v>4</v>
+      </c>
+      <c r="G14" s="15">
+        <v>30</v>
+      </c>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="15">
+        <v>30</v>
+      </c>
+      <c r="G15" s="15">
+        <v>30</v>
+      </c>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="15">
+        <v>12</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="C16" s="15">
+        <v>2</v>
+      </c>
+      <c r="D16" s="15">
+        <v>3</v>
+      </c>
+      <c r="E16" s="15">
+        <v>2</v>
+      </c>
+      <c r="F16" s="15">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9">
-        <v>1</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2</v>
-      </c>
-      <c r="D5" s="9">
-        <v>3</v>
-      </c>
-      <c r="E5" s="9">
-        <v>6</v>
-      </c>
-      <c r="F5" s="9">
-        <v>1</v>
-      </c>
-      <c r="G5" s="9">
+      <c r="G16" s="15">
         <v>100</v>
       </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="9">
-        <v>2</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="9">
-        <v>3</v>
-      </c>
-      <c r="D6" s="9">
-        <v>2</v>
-      </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>100</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="9">
-        <v>3</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="9">
-        <v>7</v>
-      </c>
-      <c r="D7" s="9">
-        <v>2</v>
-      </c>
-      <c r="E7" s="9">
-        <v>3</v>
-      </c>
-      <c r="F7" s="9">
-        <v>10</v>
-      </c>
-      <c r="G7" s="9">
-        <v>100</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="9">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="9">
-        <v>2</v>
-      </c>
-      <c r="D8" s="9">
-        <v>5</v>
-      </c>
-      <c r="E8" s="9">
-        <v>1</v>
-      </c>
-      <c r="F8" s="9">
-        <v>4</v>
-      </c>
-      <c r="G8" s="9">
-        <v>100</v>
-      </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="9">
-        <v>5</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="9">
-        <v>2</v>
-      </c>
-      <c r="D9" s="9">
-        <v>5</v>
-      </c>
-      <c r="E9" s="9">
-        <v>2</v>
-      </c>
-      <c r="F9" s="9">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>100</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="9">
-        <v>6</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="9">
-        <v>3</v>
-      </c>
-      <c r="D10" s="9">
-        <v>3</v>
-      </c>
-      <c r="E10" s="9">
-        <v>10</v>
-      </c>
-      <c r="F10" s="9">
-        <v>1</v>
-      </c>
-      <c r="G10" s="9">
-        <v>100</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="9">
-        <v>7</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="9">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9">
-        <v>3</v>
-      </c>
-      <c r="E11" s="9">
-        <v>8</v>
-      </c>
-      <c r="F11" s="9">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9">
-        <v>100</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="9">
-        <v>8</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="9">
-        <v>3</v>
-      </c>
-      <c r="D12" s="9">
-        <v>2</v>
-      </c>
-      <c r="E12" s="9">
-        <v>5</v>
-      </c>
-      <c r="F12" s="9">
-        <v>2</v>
-      </c>
-      <c r="G12" s="9">
-        <v>100</v>
-      </c>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="9">
-        <v>9</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="9">
-        <v>4</v>
-      </c>
-      <c r="D13" s="9">
-        <v>2</v>
-      </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="9">
-        <v>1</v>
-      </c>
-      <c r="G13" s="9">
-        <v>100</v>
-      </c>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="9">
-        <v>10</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="9">
-        <v>2</v>
-      </c>
-      <c r="D14" s="9">
-        <v>7</v>
-      </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="9">
-        <v>4</v>
-      </c>
-      <c r="G14" s="9">
-        <v>30</v>
-      </c>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="9">
-        <v>11</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="9">
-        <v>3</v>
-      </c>
-      <c r="D15" s="9">
-        <v>5</v>
-      </c>
-      <c r="E15" s="9">
-        <v>2</v>
-      </c>
-      <c r="F15" s="9">
-        <v>30</v>
-      </c>
-      <c r="G15" s="9">
-        <v>30</v>
-      </c>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="9">
-        <v>12</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="9">
-        <v>2</v>
-      </c>
-      <c r="D16" s="9">
-        <v>3</v>
-      </c>
-      <c r="E16" s="9">
-        <v>2</v>
-      </c>
-      <c r="F16" s="9">
-        <v>1</v>
-      </c>
-      <c r="G16" s="9">
-        <v>100</v>
-      </c>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="18" spans="4:4" ht="16.5">
-      <c r="D18" s="14"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="18" ht="16.5" spans="4:4">
+      <c r="D18" s="17"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="15"/>
+      <c r="D19" s="18"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="15"/>
+      <c r="D20" s="18"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="15"/>
+      <c r="D21" s="18"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="15"/>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="15"/>
+      <c r="D23" s="18"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="15"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="15"/>
+      <c r="D25" s="18"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="15"/>
+      <c r="D26" s="18"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="15"/>
+      <c r="D27" s="18"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="15"/>
+      <c r="D28" s="18"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="15"/>
+      <c r="D29" s="18"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>COUNTIF($A:$A,H2)&gt;1</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1 H4">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>COUNTIF($A:$A,H1)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>COUNTIF($A:$A,H2)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
@@ -1425,7 +1425,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>

--- a/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
@@ -1425,7 +1425,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A12" sqref="$A12:$XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1713,7 +1713,7 @@
         <v>27</v>
       </c>
       <c r="C12" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" s="15">
         <v>2</v>

--- a/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ECE4AC-A22C-4A3D-B990-6746199924BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView xWindow="30900" yWindow="1425" windowWidth="24270" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,29 +18,16 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>admin</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -178,7 +171,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -286,35 +279,30 @@
     <t>给对手施加1层Poison。</t>
   </si>
   <si>
+    <t xml:space="preserve">下一次攻击获得+2点伤害加成。 </t>
+  </si>
+  <si>
+    <t>Star的武器攻击力+1。</t>
+  </si>
+  <si>
+    <t>减免玩家4点受到的伤害</t>
+  </si>
+  <si>
+    <t>移除对手0.3点耐力</t>
+  </si>
+  <si>
+    <t>玩家自身获得1层Heat。</t>
+  </si>
+  <si>
     <t>给对手施加1层Blind。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下一次攻击获得+2点伤害加成。 </t>
-  </si>
-  <si>
-    <t>Star的武器攻击力+1。</t>
-  </si>
-  <si>
-    <t>减免玩家4点受到的伤害</t>
-  </si>
-  <si>
-    <t>移除对手0.3点耐力</t>
-  </si>
-  <si>
-    <t>玩家自身获得1层Heat。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,150 +328,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
@@ -494,8 +338,22 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -516,7 +374,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,13 +392,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.599993896298105"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,170 +414,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -742,255 +438,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,78 +493,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1125,11 +518,34 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1416,19 +832,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="$A12:$XFD12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="44.125" style="2" customWidth="1"/>
@@ -1541,7 +957,7 @@
       <c r="A5" s="15">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="15">
@@ -1559,13 +975,13 @@
       <c r="G5" s="15">
         <v>100</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="15">
@@ -1583,13 +999,13 @@
       <c r="G6" s="15">
         <v>100</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="15">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="15">
@@ -1607,13 +1023,13 @@
       <c r="G7" s="15">
         <v>100</v>
       </c>
-      <c r="H7" s="16"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="15">
         <v>4</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="15">
@@ -1631,7 +1047,7 @@
       <c r="G8" s="15">
         <v>100</v>
       </c>
-      <c r="H8" s="16"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="15">
@@ -1655,13 +1071,13 @@
       <c r="G9" s="15">
         <v>100</v>
       </c>
-      <c r="H9" s="16"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="15">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="15" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="15">
@@ -1679,14 +1095,14 @@
       <c r="G10" s="15">
         <v>100</v>
       </c>
-      <c r="H10" s="16"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="15">
         <v>7</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>26</v>
+      <c r="B11" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="C11" s="15">
         <v>3</v>
@@ -1703,14 +1119,14 @@
       <c r="G11" s="15">
         <v>100</v>
       </c>
-      <c r="H11" s="16"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="15">
         <v>8</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>27</v>
+      <c r="B12" s="15" t="s">
+        <v>26</v>
       </c>
       <c r="C12" s="15">
         <v>1</v>
@@ -1727,14 +1143,14 @@
       <c r="G12" s="15">
         <v>100</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="15">
         <v>9</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>28</v>
+      <c r="B13" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="C13" s="15">
         <v>4</v>
@@ -1751,14 +1167,14 @@
       <c r="G13" s="15">
         <v>100</v>
       </c>
-      <c r="H13" s="16"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="15">
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="15">
         <v>2</v>
@@ -1775,14 +1191,14 @@
       <c r="G14" s="15">
         <v>30</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="15">
         <v>11</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>30</v>
+      <c r="B15" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="C15" s="15">
         <v>3</v>
@@ -1799,14 +1215,14 @@
       <c r="G15" s="15">
         <v>30</v>
       </c>
-      <c r="H15" s="16"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="15">
         <v>12</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>31</v>
+      <c r="B16" s="15" t="s">
+        <v>30</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>
@@ -1823,101 +1239,95 @@
       <c r="G16" s="15">
         <v>100</v>
       </c>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="18" ht="16.5" spans="4:4">
-      <c r="D18" s="17"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="18" spans="4:4" ht="16.5">
+      <c r="D18" s="16"/>
     </row>
     <row r="19" spans="4:4">
-      <c r="D19" s="18"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="4:4">
-      <c r="D20" s="18"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="4:4">
-      <c r="D21" s="18"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="4:4">
-      <c r="D22" s="18"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="4:4">
-      <c r="D23" s="18"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="4:4">
-      <c r="D24" s="18"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="4:4">
-      <c r="D25" s="18"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="4:4">
-      <c r="D26" s="18"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="4:4">
-      <c r="D27" s="18"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="4:4">
-      <c r="D28" s="18"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="4:4">
-      <c r="D29" s="18"/>
+      <c r="D29" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1 H4">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+      <formula>COUNTIF($A:$A,H1)&gt;1</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF($A:$A,H2)&gt;1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H1 H4">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>COUNTIF($A:$A,H1)&gt;1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Server,Client,Both,Excluded"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31ECE4AC-A22C-4A3D-B990-6746199924BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5749B21-4339-4EB6-8A5C-E54BBB528CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30900" yWindow="1425" windowWidth="24270" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-1440" yWindow="2865" windowWidth="29010" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -42,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -63,6 +65,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -71,6 +74,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -91,6 +95,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>admin:</t>
@@ -99,6 +104,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -155,6 +161,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">admin:
@@ -164,6 +171,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -178,6 +186,7 @@
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">admin:
@@ -187,6 +196,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -264,37 +274,38 @@
     <t>玩家自身获得1层Spikes。</t>
   </si>
   <si>
+    <t>包内的物品触发快10%。</t>
+  </si>
+  <si>
+    <t>治愈玩家自身4点生命。</t>
+  </si>
+  <si>
+    <t>恢复玩家自身1点耐力.</t>
+  </si>
+  <si>
+    <t>给对手施加1层Poison。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下一次攻击获得+2点伤害加成。 </t>
+  </si>
+  <si>
+    <t>Star的武器攻击力+1。</t>
+  </si>
+  <si>
+    <t>减免玩家4点受到的伤害</t>
+  </si>
+  <si>
+    <t>移除对手0.3点耐力</t>
+  </si>
+  <si>
+    <t>玩家自身获得1层Heat。</t>
+  </si>
+  <si>
+    <t>给对手施加1层Blind。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>物品自身造成+1额外伤害。</t>
-  </si>
-  <si>
-    <t>包内的物品触发快10%。</t>
-  </si>
-  <si>
-    <t>治愈玩家自身4点生命。</t>
-  </si>
-  <si>
-    <t>恢复玩家自身1点耐力.</t>
-  </si>
-  <si>
-    <t>给对手施加1层Poison。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">下一次攻击获得+2点伤害加成。 </t>
-  </si>
-  <si>
-    <t>Star的武器攻击力+1。</t>
-  </si>
-  <si>
-    <t>减免玩家4点受到的伤害</t>
-  </si>
-  <si>
-    <t>移除对手0.3点耐力</t>
-  </si>
-  <si>
-    <t>玩家自身获得1层Heat。</t>
-  </si>
-  <si>
-    <t>给对手施加1层Blind。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -313,12 +324,14 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -331,16 +344,19 @@
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -841,7 +857,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -981,8 +997,8 @@
       <c r="A6" s="15">
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>21</v>
+      <c r="B6" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="C6" s="15">
         <v>1</v>
@@ -1006,7 +1022,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="15">
         <v>7</v>
@@ -1030,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="15">
         <v>2</v>
@@ -1054,7 +1070,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="15">
         <v>2</v>
@@ -1078,7 +1094,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="15">
         <v>3</v>
@@ -1102,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="15">
         <v>3</v>
@@ -1126,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="15">
         <v>1</v>
@@ -1150,7 +1166,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="15">
         <v>4</v>
@@ -1174,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="15">
         <v>2</v>
@@ -1198,7 +1214,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="15">
         <v>3</v>
@@ -1222,7 +1238,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>

--- a/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5749B21-4339-4EB6-8A5C-E54BBB528CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDEF3EF-F4BE-4E27-8541-0CB4C6D7DCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-1440" yWindow="2865" windowWidth="29010" windowHeight="15030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,6 @@
 2.下次攻击造成伤害+X
 3.触发间隔 %
 4.命中率
-5.下次攻击造成额外伤害+X 
 类型3 施加/移除类
 buffId
 类型4.激活类
@@ -283,9 +282,6 @@
     <t>恢复玩家自身1点耐力.</t>
   </si>
   <si>
-    <t>给对手施加1层Poison。</t>
-  </si>
-  <si>
     <t xml:space="preserve">下一次攻击获得+2点伤害加成。 </t>
   </si>
   <si>
@@ -306,6 +302,10 @@
   </si>
   <si>
     <t>物品自身造成+1额外伤害。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>给对手施加1层Poison。</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -857,7 +857,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -998,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="15">
         <v>1</v>
@@ -1093,8 +1093,8 @@
       <c r="A10" s="15">
         <v>6</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>24</v>
+      <c r="B10" s="17" t="s">
+        <v>31</v>
       </c>
       <c r="C10" s="15">
         <v>3</v>
@@ -1118,7 +1118,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="15">
         <v>3</v>
@@ -1142,7 +1142,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="15">
         <v>1</v>
@@ -1151,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12" s="15">
         <v>2</v>
@@ -1166,7 +1166,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="15">
         <v>4</v>
@@ -1190,7 +1190,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="15">
         <v>2</v>
@@ -1214,7 +1214,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="15">
         <v>3</v>
@@ -1238,7 +1238,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="15">
         <v>2</v>

--- a/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDEF3EF-F4BE-4E27-8541-0CB4C6D7DCF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE824A-B50C-4584-88DE-ABC4FC7346A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -857,7 +857,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1205,7 +1205,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="15">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H14" s="15"/>
     </row>
@@ -1229,7 +1229,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="15">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="H15" s="15"/>
     </row>

--- a/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
+++ b/Project/Tools/Excel/plan/excel/Common/TableEffect.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\UnityProject\BagBattle\Project\Tools\Excel\plan\excel\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ABE824A-B50C-4584-88DE-ABC4FC7346A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{462EBE8A-5F99-4047-87F9-E8CE12218B41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31860" yWindow="2865" windowWidth="20010" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -857,7 +857,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
